--- a/xlsx/澳大利亚_intext.xlsx
+++ b/xlsx/澳大利亚_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1977">
   <si>
     <t>澳大利亚</t>
   </si>
@@ -29,7 +29,7 @@
     <t>澳大利亚 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_澳大利亚</t>
+    <t>体育运动_体育运动_伊朗_澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
@@ -3840,6 +3840,12 @@
   </si>
   <si>
     <t>International Monetary Fund</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Archive.is</t>
+  </si>
+  <si>
+    <t>Archive.is</t>
   </si>
   <si>
     <t>http://en.wikipedia.org/wiki/Penal_transportation</t>
@@ -6288,7 +6294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1050"/>
+  <dimension ref="A1:I1051"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7908,7 +7914,7 @@
         <v>112</v>
       </c>
       <c r="G56" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -25656,7 +25662,7 @@
         <v>1272</v>
       </c>
       <c r="G668" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H668" t="s">
         <v>4</v>
@@ -25772,7 +25778,7 @@
         <v>1280</v>
       </c>
       <c r="G672" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H672" t="s">
         <v>4</v>
@@ -25801,7 +25807,7 @@
         <v>1282</v>
       </c>
       <c r="G673" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H673" t="s">
         <v>4</v>
@@ -26027,10 +26033,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>845</v>
+        <v>1297</v>
       </c>
       <c r="F681" t="s">
-        <v>846</v>
+        <v>1298</v>
       </c>
       <c r="G681" t="n">
         <v>1</v>
@@ -26056,13 +26062,13 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1297</v>
+        <v>845</v>
       </c>
       <c r="F682" t="s">
-        <v>1298</v>
+        <v>846</v>
       </c>
       <c r="G682" t="n">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="H682" t="s">
         <v>4</v>
@@ -26091,7 +26097,7 @@
         <v>1300</v>
       </c>
       <c r="G683" t="n">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="H683" t="s">
         <v>4</v>
@@ -26114,13 +26120,13 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>497</v>
+        <v>1301</v>
       </c>
       <c r="F684" t="s">
-        <v>498</v>
+        <v>1302</v>
       </c>
       <c r="G684" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H684" t="s">
         <v>4</v>
@@ -26143,10 +26149,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1299</v>
+        <v>497</v>
       </c>
       <c r="F685" t="s">
-        <v>1300</v>
+        <v>498</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -26265,7 +26271,7 @@
         <v>1308</v>
       </c>
       <c r="G689" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H689" t="s">
         <v>4</v>
@@ -26288,13 +26294,13 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>441</v>
+        <v>1309</v>
       </c>
       <c r="F690" t="s">
-        <v>442</v>
+        <v>1310</v>
       </c>
       <c r="G690" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H690" t="s">
         <v>4</v>
@@ -26317,13 +26323,13 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1309</v>
+        <v>441</v>
       </c>
       <c r="F691" t="s">
-        <v>1310</v>
+        <v>442</v>
       </c>
       <c r="G691" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H691" t="s">
         <v>4</v>
@@ -26352,7 +26358,7 @@
         <v>1312</v>
       </c>
       <c r="G692" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H692" t="s">
         <v>4</v>
@@ -26381,7 +26387,7 @@
         <v>1314</v>
       </c>
       <c r="G693" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H693" t="s">
         <v>4</v>
@@ -26404,13 +26410,13 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>473</v>
+        <v>1315</v>
       </c>
       <c r="F694" t="s">
-        <v>474</v>
+        <v>1316</v>
       </c>
       <c r="G694" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H694" t="s">
         <v>4</v>
@@ -26433,13 +26439,13 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1315</v>
+        <v>473</v>
       </c>
       <c r="F695" t="s">
-        <v>1316</v>
+        <v>474</v>
       </c>
       <c r="G695" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H695" t="s">
         <v>4</v>
@@ -26491,10 +26497,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>443</v>
+        <v>1319</v>
       </c>
       <c r="F697" t="s">
-        <v>444</v>
+        <v>1320</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -26520,10 +26526,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>373</v>
+        <v>443</v>
       </c>
       <c r="F698" t="s">
-        <v>374</v>
+        <v>444</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -26549,10 +26555,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1319</v>
+        <v>373</v>
       </c>
       <c r="F699" t="s">
-        <v>1320</v>
+        <v>374</v>
       </c>
       <c r="G699" t="n">
         <v>1</v>
@@ -26578,10 +26584,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>329</v>
+        <v>1321</v>
       </c>
       <c r="F700" t="s">
-        <v>330</v>
+        <v>1322</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -26607,10 +26613,10 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1321</v>
+        <v>329</v>
       </c>
       <c r="F701" t="s">
-        <v>1322</v>
+        <v>330</v>
       </c>
       <c r="G701" t="n">
         <v>1</v>
@@ -26636,10 +26642,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>495</v>
+        <v>1323</v>
       </c>
       <c r="F702" t="s">
-        <v>496</v>
+        <v>1324</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -26665,10 +26671,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1323</v>
+        <v>495</v>
       </c>
       <c r="F703" t="s">
-        <v>1324</v>
+        <v>496</v>
       </c>
       <c r="G703" t="n">
         <v>1</v>
@@ -26816,7 +26822,7 @@
         <v>1334</v>
       </c>
       <c r="G708" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H708" t="s">
         <v>4</v>
@@ -26845,7 +26851,7 @@
         <v>1336</v>
       </c>
       <c r="G709" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H709" t="s">
         <v>4</v>
@@ -26868,13 +26874,13 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>375</v>
+        <v>1337</v>
       </c>
       <c r="F710" t="s">
-        <v>376</v>
+        <v>1338</v>
       </c>
       <c r="G710" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H710" t="s">
         <v>4</v>
@@ -26897,13 +26903,13 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1337</v>
+        <v>375</v>
       </c>
       <c r="F711" t="s">
-        <v>1338</v>
+        <v>376</v>
       </c>
       <c r="G711" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="H711" t="s">
         <v>4</v>
@@ -26932,7 +26938,7 @@
         <v>1340</v>
       </c>
       <c r="G712" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H712" t="s">
         <v>4</v>
@@ -26984,13 +26990,13 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>673</v>
+        <v>1343</v>
       </c>
       <c r="F714" t="s">
-        <v>674</v>
+        <v>1344</v>
       </c>
       <c r="G714" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H714" t="s">
         <v>4</v>
@@ -27013,13 +27019,13 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1343</v>
+        <v>673</v>
       </c>
       <c r="F715" t="s">
-        <v>1344</v>
+        <v>674</v>
       </c>
       <c r="G715" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H715" t="s">
         <v>4</v>
@@ -27158,13 +27164,13 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>813</v>
+        <v>1353</v>
       </c>
       <c r="F720" t="s">
-        <v>814</v>
+        <v>1354</v>
       </c>
       <c r="G720" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H720" t="s">
         <v>4</v>
@@ -27187,13 +27193,13 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>1353</v>
+        <v>813</v>
       </c>
       <c r="F721" t="s">
-        <v>1354</v>
+        <v>814</v>
       </c>
       <c r="G721" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H721" t="s">
         <v>4</v>
@@ -27222,7 +27228,7 @@
         <v>1356</v>
       </c>
       <c r="G722" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H722" t="s">
         <v>4</v>
@@ -27332,10 +27338,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>947</v>
+        <v>1363</v>
       </c>
       <c r="F726" t="s">
-        <v>948</v>
+        <v>1364</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -27361,10 +27367,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1363</v>
+        <v>947</v>
       </c>
       <c r="F727" t="s">
-        <v>1364</v>
+        <v>948</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -27419,10 +27425,10 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>421</v>
+        <v>1367</v>
       </c>
       <c r="F729" t="s">
-        <v>422</v>
+        <v>1368</v>
       </c>
       <c r="G729" t="n">
         <v>1</v>
@@ -27448,10 +27454,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1367</v>
+        <v>421</v>
       </c>
       <c r="F730" t="s">
-        <v>1368</v>
+        <v>422</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -27541,7 +27547,7 @@
         <v>1374</v>
       </c>
       <c r="G733" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H733" t="s">
         <v>4</v>
@@ -27570,7 +27576,7 @@
         <v>1376</v>
       </c>
       <c r="G734" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H734" t="s">
         <v>4</v>
@@ -27599,7 +27605,7 @@
         <v>1378</v>
       </c>
       <c r="G735" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H735" t="s">
         <v>4</v>
@@ -27628,7 +27634,7 @@
         <v>1380</v>
       </c>
       <c r="G736" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H736" t="s">
         <v>4</v>
@@ -27657,7 +27663,7 @@
         <v>1382</v>
       </c>
       <c r="G737" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H737" t="s">
         <v>4</v>
@@ -27831,7 +27837,7 @@
         <v>1394</v>
       </c>
       <c r="G743" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H743" t="s">
         <v>4</v>
@@ -27860,7 +27866,7 @@
         <v>1396</v>
       </c>
       <c r="G744" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H744" t="s">
         <v>4</v>
@@ -27889,7 +27895,7 @@
         <v>1398</v>
       </c>
       <c r="G745" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H745" t="s">
         <v>4</v>
@@ -27976,7 +27982,7 @@
         <v>1404</v>
       </c>
       <c r="G748" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H748" t="s">
         <v>4</v>
@@ -28121,7 +28127,7 @@
         <v>1414</v>
       </c>
       <c r="G753" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H753" t="s">
         <v>4</v>
@@ -28150,7 +28156,7 @@
         <v>1416</v>
       </c>
       <c r="G754" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H754" t="s">
         <v>4</v>
@@ -28208,7 +28214,7 @@
         <v>1420</v>
       </c>
       <c r="G756" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H756" t="s">
         <v>4</v>
@@ -28237,7 +28243,7 @@
         <v>1422</v>
       </c>
       <c r="G757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H757" t="s">
         <v>4</v>
@@ -28266,7 +28272,7 @@
         <v>1424</v>
       </c>
       <c r="G758" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H758" t="s">
         <v>4</v>
@@ -28295,7 +28301,7 @@
         <v>1426</v>
       </c>
       <c r="G759" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H759" t="s">
         <v>4</v>
@@ -28324,7 +28330,7 @@
         <v>1428</v>
       </c>
       <c r="G760" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H760" t="s">
         <v>4</v>
@@ -28353,7 +28359,7 @@
         <v>1430</v>
       </c>
       <c r="G761" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H761" t="s">
         <v>4</v>
@@ -28382,7 +28388,7 @@
         <v>1432</v>
       </c>
       <c r="G762" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H762" t="s">
         <v>4</v>
@@ -28411,7 +28417,7 @@
         <v>1434</v>
       </c>
       <c r="G763" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H763" t="s">
         <v>4</v>
@@ -28440,7 +28446,7 @@
         <v>1436</v>
       </c>
       <c r="G764" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H764" t="s">
         <v>4</v>
@@ -28846,7 +28852,7 @@
         <v>1464</v>
       </c>
       <c r="G778" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H778" t="s">
         <v>4</v>
@@ -28875,7 +28881,7 @@
         <v>1466</v>
       </c>
       <c r="G779" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H779" t="s">
         <v>4</v>
@@ -28904,7 +28910,7 @@
         <v>1468</v>
       </c>
       <c r="G780" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H780" t="s">
         <v>4</v>
@@ -28933,7 +28939,7 @@
         <v>1470</v>
       </c>
       <c r="G781" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H781" t="s">
         <v>4</v>
@@ -28962,7 +28968,7 @@
         <v>1472</v>
       </c>
       <c r="G782" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H782" t="s">
         <v>4</v>
@@ -29020,7 +29026,7 @@
         <v>1476</v>
       </c>
       <c r="G784" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H784" t="s">
         <v>4</v>
@@ -29049,7 +29055,7 @@
         <v>1478</v>
       </c>
       <c r="G785" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H785" t="s">
         <v>4</v>
@@ -29078,7 +29084,7 @@
         <v>1480</v>
       </c>
       <c r="G786" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H786" t="s">
         <v>4</v>
@@ -29107,7 +29113,7 @@
         <v>1482</v>
       </c>
       <c r="G787" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H787" t="s">
         <v>4</v>
@@ -29136,7 +29142,7 @@
         <v>1484</v>
       </c>
       <c r="G788" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H788" t="s">
         <v>4</v>
@@ -29194,7 +29200,7 @@
         <v>1488</v>
       </c>
       <c r="G790" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H790" t="s">
         <v>4</v>
@@ -29223,7 +29229,7 @@
         <v>1490</v>
       </c>
       <c r="G791" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H791" t="s">
         <v>4</v>
@@ -29252,7 +29258,7 @@
         <v>1492</v>
       </c>
       <c r="G792" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H792" t="s">
         <v>4</v>
@@ -29310,7 +29316,7 @@
         <v>1496</v>
       </c>
       <c r="G794" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H794" t="s">
         <v>4</v>
@@ -29339,7 +29345,7 @@
         <v>1498</v>
       </c>
       <c r="G795" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H795" t="s">
         <v>4</v>
@@ -29368,7 +29374,7 @@
         <v>1500</v>
       </c>
       <c r="G796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H796" t="s">
         <v>4</v>
@@ -29426,7 +29432,7 @@
         <v>1504</v>
       </c>
       <c r="G798" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H798" t="s">
         <v>4</v>
@@ -29600,7 +29606,7 @@
         <v>1516</v>
       </c>
       <c r="G804" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H804" t="s">
         <v>4</v>
@@ -29629,7 +29635,7 @@
         <v>1518</v>
       </c>
       <c r="G805" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H805" t="s">
         <v>4</v>
@@ -29658,7 +29664,7 @@
         <v>1520</v>
       </c>
       <c r="G806" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H806" t="s">
         <v>4</v>
@@ -29687,7 +29693,7 @@
         <v>1522</v>
       </c>
       <c r="G807" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H807" t="s">
         <v>4</v>
@@ -29745,7 +29751,7 @@
         <v>1526</v>
       </c>
       <c r="G809" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H809" t="s">
         <v>4</v>
@@ -29774,7 +29780,7 @@
         <v>1528</v>
       </c>
       <c r="G810" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H810" t="s">
         <v>4</v>
@@ -29890,7 +29896,7 @@
         <v>1536</v>
       </c>
       <c r="G814" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H814" t="s">
         <v>4</v>
@@ -29919,7 +29925,7 @@
         <v>1538</v>
       </c>
       <c r="G815" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H815" t="s">
         <v>4</v>
@@ -29977,7 +29983,7 @@
         <v>1542</v>
       </c>
       <c r="G817" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H817" t="s">
         <v>4</v>
@@ -30006,7 +30012,7 @@
         <v>1544</v>
       </c>
       <c r="G818" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H818" t="s">
         <v>4</v>
@@ -30035,7 +30041,7 @@
         <v>1546</v>
       </c>
       <c r="G819" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H819" t="s">
         <v>4</v>
@@ -30064,7 +30070,7 @@
         <v>1548</v>
       </c>
       <c r="G820" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H820" t="s">
         <v>4</v>
@@ -30093,7 +30099,7 @@
         <v>1550</v>
       </c>
       <c r="G821" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H821" t="s">
         <v>4</v>
@@ -30122,7 +30128,7 @@
         <v>1552</v>
       </c>
       <c r="G822" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H822" t="s">
         <v>4</v>
@@ -30151,7 +30157,7 @@
         <v>1554</v>
       </c>
       <c r="G823" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H823" t="s">
         <v>4</v>
@@ -30180,7 +30186,7 @@
         <v>1556</v>
       </c>
       <c r="G824" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H824" t="s">
         <v>4</v>
@@ -30238,7 +30244,7 @@
         <v>1560</v>
       </c>
       <c r="G826" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H826" t="s">
         <v>4</v>
@@ -30267,7 +30273,7 @@
         <v>1562</v>
       </c>
       <c r="G827" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H827" t="s">
         <v>4</v>
@@ -30325,7 +30331,7 @@
         <v>1566</v>
       </c>
       <c r="G829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H829" t="s">
         <v>4</v>
@@ -30354,7 +30360,7 @@
         <v>1568</v>
       </c>
       <c r="G830" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H830" t="s">
         <v>4</v>
@@ -30412,7 +30418,7 @@
         <v>1572</v>
       </c>
       <c r="G832" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H832" t="s">
         <v>4</v>
@@ -30470,7 +30476,7 @@
         <v>1576</v>
       </c>
       <c r="G834" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H834" t="s">
         <v>4</v>
@@ -30499,7 +30505,7 @@
         <v>1578</v>
       </c>
       <c r="G835" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H835" t="s">
         <v>4</v>
@@ -30528,7 +30534,7 @@
         <v>1580</v>
       </c>
       <c r="G836" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H836" t="s">
         <v>4</v>
@@ -30557,7 +30563,7 @@
         <v>1582</v>
       </c>
       <c r="G837" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H837" t="s">
         <v>4</v>
@@ -30586,7 +30592,7 @@
         <v>1584</v>
       </c>
       <c r="G838" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H838" t="s">
         <v>4</v>
@@ -30615,7 +30621,7 @@
         <v>1586</v>
       </c>
       <c r="G839" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H839" t="s">
         <v>4</v>
@@ -30644,7 +30650,7 @@
         <v>1588</v>
       </c>
       <c r="G840" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H840" t="s">
         <v>4</v>
@@ -30673,7 +30679,7 @@
         <v>1590</v>
       </c>
       <c r="G841" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H841" t="s">
         <v>4</v>
@@ -30696,10 +30702,10 @@
         <v>841</v>
       </c>
       <c r="E842" t="s">
-        <v>1539</v>
+        <v>1591</v>
       </c>
       <c r="F842" t="s">
-        <v>1540</v>
+        <v>1592</v>
       </c>
       <c r="G842" t="n">
         <v>2</v>
@@ -30725,10 +30731,10 @@
         <v>842</v>
       </c>
       <c r="E843" t="s">
-        <v>1591</v>
+        <v>1541</v>
       </c>
       <c r="F843" t="s">
-        <v>1592</v>
+        <v>1542</v>
       </c>
       <c r="G843" t="n">
         <v>2</v>
@@ -30789,7 +30795,7 @@
         <v>1596</v>
       </c>
       <c r="G845" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H845" t="s">
         <v>4</v>
@@ -30818,7 +30824,7 @@
         <v>1598</v>
       </c>
       <c r="G846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H846" t="s">
         <v>4</v>
@@ -30847,7 +30853,7 @@
         <v>1600</v>
       </c>
       <c r="G847" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H847" t="s">
         <v>4</v>
@@ -30876,7 +30882,7 @@
         <v>1602</v>
       </c>
       <c r="G848" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H848" t="s">
         <v>4</v>
@@ -30905,7 +30911,7 @@
         <v>1604</v>
       </c>
       <c r="G849" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H849" t="s">
         <v>4</v>
@@ -30934,7 +30940,7 @@
         <v>1606</v>
       </c>
       <c r="G850" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H850" t="s">
         <v>4</v>
@@ -30957,10 +30963,10 @@
         <v>850</v>
       </c>
       <c r="E851" t="s">
-        <v>1471</v>
+        <v>1607</v>
       </c>
       <c r="F851" t="s">
-        <v>1472</v>
+        <v>1608</v>
       </c>
       <c r="G851" t="n">
         <v>2</v>
@@ -30986,10 +30992,10 @@
         <v>851</v>
       </c>
       <c r="E852" t="s">
-        <v>1513</v>
+        <v>1473</v>
       </c>
       <c r="F852" t="s">
-        <v>1514</v>
+        <v>1474</v>
       </c>
       <c r="G852" t="n">
         <v>2</v>
@@ -31015,10 +31021,10 @@
         <v>852</v>
       </c>
       <c r="E853" t="s">
-        <v>1607</v>
+        <v>1515</v>
       </c>
       <c r="F853" t="s">
-        <v>1608</v>
+        <v>1516</v>
       </c>
       <c r="G853" t="n">
         <v>2</v>
@@ -31050,7 +31056,7 @@
         <v>1610</v>
       </c>
       <c r="G854" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H854" t="s">
         <v>4</v>
@@ -31079,7 +31085,7 @@
         <v>1612</v>
       </c>
       <c r="G855" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H855" t="s">
         <v>4</v>
@@ -31108,7 +31114,7 @@
         <v>1614</v>
       </c>
       <c r="G856" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H856" t="s">
         <v>4</v>
@@ -31131,13 +31137,13 @@
         <v>856</v>
       </c>
       <c r="E857" t="s">
-        <v>1519</v>
+        <v>1615</v>
       </c>
       <c r="F857" t="s">
-        <v>1520</v>
+        <v>1616</v>
       </c>
       <c r="G857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H857" t="s">
         <v>4</v>
@@ -31160,13 +31166,13 @@
         <v>857</v>
       </c>
       <c r="E858" t="s">
-        <v>1615</v>
+        <v>1521</v>
       </c>
       <c r="F858" t="s">
-        <v>1616</v>
+        <v>1522</v>
       </c>
       <c r="G858" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H858" t="s">
         <v>4</v>
@@ -31195,7 +31201,7 @@
         <v>1618</v>
       </c>
       <c r="G859" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H859" t="s">
         <v>4</v>
@@ -31224,7 +31230,7 @@
         <v>1620</v>
       </c>
       <c r="G860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H860" t="s">
         <v>4</v>
@@ -31247,10 +31253,10 @@
         <v>860</v>
       </c>
       <c r="E861" t="s">
-        <v>15</v>
+        <v>1621</v>
       </c>
       <c r="F861" t="s">
-        <v>16</v>
+        <v>1622</v>
       </c>
       <c r="G861" t="n">
         <v>1</v>
@@ -31276,10 +31282,10 @@
         <v>861</v>
       </c>
       <c r="E862" t="s">
-        <v>1387</v>
+        <v>15</v>
       </c>
       <c r="F862" t="s">
-        <v>1388</v>
+        <v>16</v>
       </c>
       <c r="G862" t="n">
         <v>1</v>
@@ -31305,10 +31311,10 @@
         <v>862</v>
       </c>
       <c r="E863" t="s">
-        <v>1621</v>
+        <v>1389</v>
       </c>
       <c r="F863" t="s">
-        <v>1622</v>
+        <v>1390</v>
       </c>
       <c r="G863" t="n">
         <v>1</v>
@@ -31334,10 +31340,10 @@
         <v>863</v>
       </c>
       <c r="E864" t="s">
-        <v>1391</v>
+        <v>1623</v>
       </c>
       <c r="F864" t="s">
-        <v>1392</v>
+        <v>1624</v>
       </c>
       <c r="G864" t="n">
         <v>1</v>
@@ -31363,10 +31369,10 @@
         <v>864</v>
       </c>
       <c r="E865" t="s">
-        <v>1623</v>
+        <v>1393</v>
       </c>
       <c r="F865" t="s">
-        <v>1624</v>
+        <v>1394</v>
       </c>
       <c r="G865" t="n">
         <v>1</v>
@@ -31450,13 +31456,13 @@
         <v>867</v>
       </c>
       <c r="E868" t="s">
-        <v>1455</v>
+        <v>1629</v>
       </c>
       <c r="F868" t="s">
-        <v>1456</v>
+        <v>1630</v>
       </c>
       <c r="G868" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H868" t="s">
         <v>4</v>
@@ -31479,13 +31485,13 @@
         <v>868</v>
       </c>
       <c r="E869" t="s">
-        <v>1629</v>
+        <v>1457</v>
       </c>
       <c r="F869" t="s">
-        <v>1630</v>
+        <v>1458</v>
       </c>
       <c r="G869" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H869" t="s">
         <v>4</v>
@@ -32523,10 +32529,10 @@
         <v>904</v>
       </c>
       <c r="E905" t="s">
-        <v>181</v>
+        <v>1701</v>
       </c>
       <c r="F905" t="s">
-        <v>182</v>
+        <v>1702</v>
       </c>
       <c r="G905" t="n">
         <v>1</v>
@@ -32552,13 +32558,13 @@
         <v>905</v>
       </c>
       <c r="E906" t="s">
-        <v>1701</v>
+        <v>181</v>
       </c>
       <c r="F906" t="s">
-        <v>1702</v>
+        <v>182</v>
       </c>
       <c r="G906" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H906" t="s">
         <v>4</v>
@@ -32587,7 +32593,7 @@
         <v>1704</v>
       </c>
       <c r="G907" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H907" t="s">
         <v>4</v>
@@ -32616,7 +32622,7 @@
         <v>1706</v>
       </c>
       <c r="G908" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H908" t="s">
         <v>4</v>
@@ -32674,7 +32680,7 @@
         <v>1710</v>
       </c>
       <c r="G910" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H910" t="s">
         <v>4</v>
@@ -32703,7 +32709,7 @@
         <v>1712</v>
       </c>
       <c r="G911" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H911" t="s">
         <v>4</v>
@@ -32761,7 +32767,7 @@
         <v>1716</v>
       </c>
       <c r="G913" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H913" t="s">
         <v>4</v>
@@ -32819,7 +32825,7 @@
         <v>1720</v>
       </c>
       <c r="G915" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H915" t="s">
         <v>4</v>
@@ -32848,7 +32854,7 @@
         <v>1722</v>
       </c>
       <c r="G916" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H916" t="s">
         <v>4</v>
@@ -32871,13 +32877,13 @@
         <v>916</v>
       </c>
       <c r="E917" t="s">
-        <v>785</v>
+        <v>1723</v>
       </c>
       <c r="F917" t="s">
-        <v>786</v>
+        <v>1724</v>
       </c>
       <c r="G917" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H917" t="s">
         <v>4</v>
@@ -32900,13 +32906,13 @@
         <v>917</v>
       </c>
       <c r="E918" t="s">
-        <v>1723</v>
+        <v>785</v>
       </c>
       <c r="F918" t="s">
-        <v>1724</v>
+        <v>786</v>
       </c>
       <c r="G918" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H918" t="s">
         <v>4</v>
@@ -32935,7 +32941,7 @@
         <v>1726</v>
       </c>
       <c r="G919" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H919" t="s">
         <v>4</v>
@@ -32993,7 +32999,7 @@
         <v>1730</v>
       </c>
       <c r="G921" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H921" t="s">
         <v>4</v>
@@ -33022,7 +33028,7 @@
         <v>1732</v>
       </c>
       <c r="G922" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H922" t="s">
         <v>4</v>
@@ -33051,7 +33057,7 @@
         <v>1734</v>
       </c>
       <c r="G923" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H923" t="s">
         <v>4</v>
@@ -33080,7 +33086,7 @@
         <v>1736</v>
       </c>
       <c r="G924" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H924" t="s">
         <v>4</v>
@@ -33167,7 +33173,7 @@
         <v>1742</v>
       </c>
       <c r="G927" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H927" t="s">
         <v>4</v>
@@ -33190,13 +33196,13 @@
         <v>927</v>
       </c>
       <c r="E928" t="s">
-        <v>323</v>
+        <v>1743</v>
       </c>
       <c r="F928" t="s">
-        <v>324</v>
+        <v>1744</v>
       </c>
       <c r="G928" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H928" t="s">
         <v>4</v>
@@ -33219,13 +33225,13 @@
         <v>928</v>
       </c>
       <c r="E929" t="s">
-        <v>1743</v>
+        <v>323</v>
       </c>
       <c r="F929" t="s">
-        <v>1744</v>
+        <v>324</v>
       </c>
       <c r="G929" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H929" t="s">
         <v>4</v>
@@ -33254,7 +33260,7 @@
         <v>1746</v>
       </c>
       <c r="G930" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H930" t="s">
         <v>4</v>
@@ -33341,7 +33347,7 @@
         <v>1752</v>
       </c>
       <c r="G933" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="H933" t="s">
         <v>4</v>
@@ -33370,7 +33376,7 @@
         <v>1754</v>
       </c>
       <c r="G934" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="H934" t="s">
         <v>4</v>
@@ -33399,7 +33405,7 @@
         <v>1756</v>
       </c>
       <c r="G935" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H935" t="s">
         <v>4</v>
@@ -33428,7 +33434,7 @@
         <v>1758</v>
       </c>
       <c r="G936" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H936" t="s">
         <v>4</v>
@@ -33747,7 +33753,7 @@
         <v>1780</v>
       </c>
       <c r="G947" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H947" t="s">
         <v>4</v>
@@ -33776,7 +33782,7 @@
         <v>1782</v>
       </c>
       <c r="G948" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H948" t="s">
         <v>4</v>
@@ -34240,7 +34246,7 @@
         <v>1814</v>
       </c>
       <c r="G964" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H964" t="s">
         <v>4</v>
@@ -34269,7 +34275,7 @@
         <v>1816</v>
       </c>
       <c r="G965" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H965" t="s">
         <v>4</v>
@@ -34327,7 +34333,7 @@
         <v>1820</v>
       </c>
       <c r="G967" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H967" t="s">
         <v>4</v>
@@ -34356,7 +34362,7 @@
         <v>1822</v>
       </c>
       <c r="G968" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H968" t="s">
         <v>4</v>
@@ -34385,7 +34391,7 @@
         <v>1824</v>
       </c>
       <c r="G969" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H969" t="s">
         <v>4</v>
@@ -34443,7 +34449,7 @@
         <v>1828</v>
       </c>
       <c r="G971" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H971" t="s">
         <v>4</v>
@@ -34994,7 +35000,7 @@
         <v>1866</v>
       </c>
       <c r="G990" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H990" t="s">
         <v>4</v>
@@ -35023,7 +35029,7 @@
         <v>1868</v>
       </c>
       <c r="G991" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H991" t="s">
         <v>4</v>
@@ -35226,7 +35232,7 @@
         <v>1882</v>
       </c>
       <c r="G998" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H998" t="s">
         <v>4</v>
@@ -35255,7 +35261,7 @@
         <v>1884</v>
       </c>
       <c r="G999" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H999" t="s">
         <v>4</v>
@@ -35342,7 +35348,7 @@
         <v>1890</v>
       </c>
       <c r="G1002" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1002" t="s">
         <v>4</v>
@@ -35371,7 +35377,7 @@
         <v>1892</v>
       </c>
       <c r="G1003" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1003" t="s">
         <v>4</v>
@@ -35400,7 +35406,7 @@
         <v>1894</v>
       </c>
       <c r="G1004" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1004" t="s">
         <v>4</v>
@@ -35661,7 +35667,7 @@
         <v>1912</v>
       </c>
       <c r="G1013" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1013" t="s">
         <v>4</v>
@@ -35690,7 +35696,7 @@
         <v>1914</v>
       </c>
       <c r="G1014" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1014" t="s">
         <v>4</v>
@@ -35719,7 +35725,7 @@
         <v>1916</v>
       </c>
       <c r="G1015" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1015" t="s">
         <v>4</v>
@@ -35748,7 +35754,7 @@
         <v>1918</v>
       </c>
       <c r="G1016" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1016" t="s">
         <v>4</v>
@@ -35777,7 +35783,7 @@
         <v>1920</v>
       </c>
       <c r="G1017" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1017" t="s">
         <v>4</v>
@@ -35806,7 +35812,7 @@
         <v>1922</v>
       </c>
       <c r="G1018" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1018" t="s">
         <v>4</v>
@@ -35835,7 +35841,7 @@
         <v>1924</v>
       </c>
       <c r="G1019" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1019" t="s">
         <v>4</v>
@@ -35864,7 +35870,7 @@
         <v>1926</v>
       </c>
       <c r="G1020" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1020" t="s">
         <v>4</v>
@@ -35893,7 +35899,7 @@
         <v>1928</v>
       </c>
       <c r="G1021" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1021" t="s">
         <v>4</v>
@@ -35974,13 +35980,13 @@
         <v>1023</v>
       </c>
       <c r="E1024" t="s">
-        <v>231</v>
+        <v>1933</v>
       </c>
       <c r="F1024" t="s">
-        <v>232</v>
+        <v>1934</v>
       </c>
       <c r="G1024" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1024" t="s">
         <v>4</v>
@@ -36003,10 +36009,10 @@
         <v>1024</v>
       </c>
       <c r="E1025" t="s">
-        <v>1933</v>
+        <v>231</v>
       </c>
       <c r="F1025" t="s">
-        <v>1934</v>
+        <v>232</v>
       </c>
       <c r="G1025" t="n">
         <v>1</v>
@@ -36061,13 +36067,13 @@
         <v>1026</v>
       </c>
       <c r="E1027" t="s">
-        <v>1511</v>
+        <v>1937</v>
       </c>
       <c r="F1027" t="s">
-        <v>1512</v>
+        <v>1938</v>
       </c>
       <c r="G1027" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1027" t="s">
         <v>4</v>
@@ -36090,10 +36096,10 @@
         <v>1027</v>
       </c>
       <c r="E1028" t="s">
-        <v>1937</v>
+        <v>1513</v>
       </c>
       <c r="F1028" t="s">
-        <v>1938</v>
+        <v>1514</v>
       </c>
       <c r="G1028" t="n">
         <v>2</v>
@@ -36125,7 +36131,7 @@
         <v>1940</v>
       </c>
       <c r="G1029" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1029" t="s">
         <v>4</v>
@@ -36154,7 +36160,7 @@
         <v>1942</v>
       </c>
       <c r="G1030" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1030" t="s">
         <v>4</v>
@@ -36235,13 +36241,13 @@
         <v>1032</v>
       </c>
       <c r="E1033" t="s">
-        <v>1727</v>
+        <v>1947</v>
       </c>
       <c r="F1033" t="s">
-        <v>1728</v>
+        <v>1948</v>
       </c>
       <c r="G1033" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1033" t="s">
         <v>4</v>
@@ -36264,10 +36270,10 @@
         <v>1033</v>
       </c>
       <c r="E1034" t="s">
-        <v>539</v>
+        <v>1729</v>
       </c>
       <c r="F1034" t="s">
-        <v>540</v>
+        <v>1730</v>
       </c>
       <c r="G1034" t="n">
         <v>1</v>
@@ -36293,10 +36299,10 @@
         <v>1034</v>
       </c>
       <c r="E1035" t="s">
-        <v>1947</v>
+        <v>539</v>
       </c>
       <c r="F1035" t="s">
-        <v>1948</v>
+        <v>540</v>
       </c>
       <c r="G1035" t="n">
         <v>1</v>
@@ -36380,10 +36386,10 @@
         <v>1037</v>
       </c>
       <c r="E1038" t="s">
-        <v>1727</v>
+        <v>1953</v>
       </c>
       <c r="F1038" t="s">
-        <v>1728</v>
+        <v>1954</v>
       </c>
       <c r="G1038" t="n">
         <v>1</v>
@@ -36409,10 +36415,10 @@
         <v>1038</v>
       </c>
       <c r="E1039" t="s">
-        <v>1953</v>
+        <v>1729</v>
       </c>
       <c r="F1039" t="s">
-        <v>1954</v>
+        <v>1730</v>
       </c>
       <c r="G1039" t="n">
         <v>1</v>
@@ -36438,10 +36444,10 @@
         <v>1039</v>
       </c>
       <c r="E1040" t="s">
-        <v>521</v>
+        <v>1955</v>
       </c>
       <c r="F1040" t="s">
-        <v>522</v>
+        <v>1956</v>
       </c>
       <c r="G1040" t="n">
         <v>1</v>
@@ -36467,13 +36473,13 @@
         <v>1040</v>
       </c>
       <c r="E1041" t="s">
-        <v>1955</v>
+        <v>521</v>
       </c>
       <c r="F1041" t="s">
-        <v>1956</v>
+        <v>522</v>
       </c>
       <c r="G1041" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1041" t="s">
         <v>4</v>
@@ -36502,7 +36508,7 @@
         <v>1958</v>
       </c>
       <c r="G1042" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1042" t="s">
         <v>4</v>
@@ -36734,12 +36740,41 @@
         <v>1974</v>
       </c>
       <c r="G1050" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1050" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:9">
+      <c r="A1051" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G1051" t="n">
         <v>5</v>
       </c>
-      <c r="H1050" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1050" t="n">
+      <c r="H1051" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1051" t="n">
         <v>3</v>
       </c>
     </row>
